--- a/STUDY_plan_Alexis_semester_2.xlsx
+++ b/STUDY_plan_Alexis_semester_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d20ffae102572ece/Desktop/4th-Year-Computing-Project-Folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="8_{7215051B-A305-42F1-A618-EA1A3FF06483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1ADE3888-0791-4355-9BA0-3EBB9AB6FB9E}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="8_{7215051B-A305-42F1-A618-EA1A3FF06483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C999232F-9676-4D76-BF65-ED75702216A0}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plan" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>Week &amp; Date</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>Save to GitHub</t>
+  </si>
+  <si>
+    <t>Create IPO</t>
   </si>
 </sst>
 </file>
@@ -1129,10 +1132,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1266,31 +1269,29 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>2</v>
+      <c r="B21" s="7" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -1298,24 +1299,33 @@
         <v>8</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B23" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B24" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="25" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B27" s="8" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1333,34 +1343,47 @@
       <c r="A36" s="7" t="s">
         <v>26</v>
       </c>
+      <c r="B36" s="1"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B38" s="7"/>
     </row>
     <row r="44" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="B44" s="1"/>
       <c r="C44" s="7" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B46" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="B48" s="1"/>
       <c r="D48" s="7" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B50" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="1"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B55" s="7" t="s">
         <v>29</v>
       </c>
     </row>
